--- a/data/2.xlsx
+++ b/data/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\04-03-2025 HDSM-main\04-03-2025 uređeno\raspored\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\06-03-2025 HDSM-man\06-03-2025 v1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8A0AF-B66B-4D3D-ADE0-3EE040862976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3028E4-5AD1-44F1-8E31-70953E6ACDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,30 +120,9 @@
     <t>Andreja Maček</t>
   </si>
   <si>
-    <t>09:45-09:55</t>
-  </si>
-  <si>
-    <t>09:55-10:05</t>
-  </si>
-  <si>
-    <t>10:05-10:15</t>
-  </si>
-  <si>
-    <t>10:15-10:25</t>
-  </si>
-  <si>
-    <t>10:25–10:35</t>
-  </si>
-  <si>
-    <t>10:35-10:45</t>
-  </si>
-  <si>
     <t>Rasprava</t>
   </si>
   <si>
-    <t>10:45 – 11:30</t>
-  </si>
-  <si>
     <t>OKRUGLI STOL: Standardizacija komunikacije između MPDJ i timova HMS – kako uskladiti procese i protok informacija?</t>
   </si>
   <si>
@@ -159,67 +138,13 @@
     <t>Ivan Gornik</t>
   </si>
   <si>
-    <t>11:30 – 11:50</t>
-  </si>
-  <si>
     <t>Igor Pelaić i Želimir Đurić</t>
   </si>
   <si>
-    <t>11:50-12:05</t>
-  </si>
-  <si>
-    <t>12:05- 12:15</t>
-  </si>
-  <si>
-    <t>12:15- 12:25</t>
-  </si>
-  <si>
-    <t>12:25- 12:35</t>
-  </si>
-  <si>
-    <t>12:35-12:45</t>
-  </si>
-  <si>
-    <t>12:45-12:55</t>
-  </si>
-  <si>
-    <t>12:55-13:05</t>
-  </si>
-  <si>
-    <t>13:05-13:15</t>
-  </si>
-  <si>
-    <t>13:15-13:20</t>
-  </si>
-  <si>
     <t>Ručak</t>
   </si>
   <si>
-    <t>13:20-15:30</t>
-  </si>
-  <si>
     <t>Marijan Bašić i Damir Važanić</t>
-  </si>
-  <si>
-    <t>15:30-15:45</t>
-  </si>
-  <si>
-    <t>15:45-16:00</t>
-  </si>
-  <si>
-    <t>16:00-16:15</t>
-  </si>
-  <si>
-    <t>16:15-16:30</t>
-  </si>
-  <si>
-    <t>16:30-16:40</t>
-  </si>
-  <si>
-    <t>16:40-17:00</t>
-  </si>
-  <si>
-    <t>17:00 – 17:45</t>
   </si>
   <si>
     <t>RADIONICA: Uloga OHBP-a u velikoj nesreći i katastrofi</t>
@@ -342,13 +267,88 @@
 prizemlje)</t>
   </si>
   <si>
-    <t>09:00 09:15</t>
-  </si>
-  <si>
-    <t>09:15 09:30</t>
-  </si>
-  <si>
     <t>09:30 - 09:45</t>
+  </si>
+  <si>
+    <t>09:00 - 09:15</t>
+  </si>
+  <si>
+    <t>09:15 - 09:30</t>
+  </si>
+  <si>
+    <t>09:45 - 09:55</t>
+  </si>
+  <si>
+    <t>09:55 - 10:05</t>
+  </si>
+  <si>
+    <t>10:05 - 10:15</t>
+  </si>
+  <si>
+    <t>10:15 - 10:25</t>
+  </si>
+  <si>
+    <t>10:25 - 10:35</t>
+  </si>
+  <si>
+    <t>10:35 - 10:45</t>
+  </si>
+  <si>
+    <t>10:45 - 11:30</t>
+  </si>
+  <si>
+    <t>11:30 - 11:50</t>
+  </si>
+  <si>
+    <t>11:50 - 12:05</t>
+  </si>
+  <si>
+    <t>12:05 - 12:15</t>
+  </si>
+  <si>
+    <t>12:15 - 12:25</t>
+  </si>
+  <si>
+    <t>12:25 - 12:35</t>
+  </si>
+  <si>
+    <t>12:35 - 12:45</t>
+  </si>
+  <si>
+    <t>12:45 - 12:55</t>
+  </si>
+  <si>
+    <t>12:55 - 13:05</t>
+  </si>
+  <si>
+    <t>13:05 - 13:15</t>
+  </si>
+  <si>
+    <t>13:15 - 13:20</t>
+  </si>
+  <si>
+    <t>13:20 - 15:30</t>
+  </si>
+  <si>
+    <t>15:30 - 15:45</t>
+  </si>
+  <si>
+    <t>15:45 - 16:00</t>
+  </si>
+  <si>
+    <t>16:00 - 16:15</t>
+  </si>
+  <si>
+    <t>16:15 - 16:30</t>
+  </si>
+  <si>
+    <t>16:30 - 16:40</t>
+  </si>
+  <si>
+    <t>16:40 - 17:00</t>
+  </si>
+  <si>
+    <t>17:00 - 17:45</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -480,14 +480,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1"/>
@@ -885,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
@@ -904,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>26</v>
@@ -923,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -942,7 +941,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -961,14 +960,14 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>9</v>
@@ -980,14 +979,14 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>9</v>
@@ -999,14 +998,14 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="4" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>9</v>
@@ -1018,14 +1017,14 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>9</v>
@@ -1037,10 +1036,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
@@ -1054,18 +1053,18 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>9</v>
@@ -1077,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -1094,17 +1093,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="J14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1118,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -1132,13 +1127,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>9</v>
@@ -1149,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>9</v>
@@ -1166,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -1183,13 +1178,13 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>9</v>
@@ -1200,13 +1195,13 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>9</v>
@@ -1217,13 +1212,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>9</v>
@@ -1234,13 +1229,13 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>9</v>
@@ -1251,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>9</v>
@@ -1268,10 +1263,10 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
@@ -1282,10 +1277,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -1302,7 +1297,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -1311,13 +1306,13 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>9</v>
@@ -1328,13 +1323,13 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>9</v>
@@ -1345,13 +1340,13 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>9</v>
@@ -1362,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>9</v>
@@ -1379,10 +1374,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
@@ -1393,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
@@ -1405,16 +1400,16 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
@@ -1422,16 +1417,16 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="40.5" customHeight="1" thickBot="1">
@@ -1439,10 +1434,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="J35" s="1"/>
     </row>

--- a/data/2.xlsx
+++ b/data/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\06-03-2025 HDSM-man\06-03-2025 v1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\09-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3028E4-5AD1-44F1-8E31-70953E6ACDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E6AAF0-EF2E-49E2-B10E-36702A061CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
   <si>
     <t>VRSTA</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Dvorana</t>
   </si>
   <si>
-    <t>//</t>
-  </si>
-  <si>
     <t xml:space="preserve">Voditelj </t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>RIVA (Hotel OLYMPIA SKY, prizemlje)</t>
   </si>
   <si>
-    <t>(Hotel Olympia, aperitiv bar)</t>
-  </si>
-  <si>
     <t>Sažetak EN</t>
   </si>
   <si>
@@ -123,16 +117,10 @@
     <t>Rasprava</t>
   </si>
   <si>
-    <t>OKRUGLI STOL: Standardizacija komunikacije između MPDJ i timova HMS – kako uskladiti procese i protok informacija?</t>
-  </si>
-  <si>
     <t>Stjepan Petričević</t>
   </si>
   <si>
     <t>Davorka Furdek, Senka Kajčić, Igor Pelaić</t>
-  </si>
-  <si>
-    <t>RADIONICA: Uvod u UZV medicinske sestre/medicinske tehničare</t>
   </si>
   <si>
     <t>Ivan Gornik</t>
@@ -208,9 +196,6 @@
     <t>Propedeutika za medicinske sestre/tehničare – novi tečaj HSDHM-a</t>
   </si>
   <si>
-    <t>Želimir Đurić</t>
-  </si>
-  <si>
     <t>Postupanje MPDJ u velikoj nesreći</t>
   </si>
   <si>
@@ -251,9 +236,6 @@
   </si>
   <si>
     <t>Antun Šlat, Nevio Mavrović</t>
-  </si>
-  <si>
-    <t>Standardizacija komunikacije između medicinske prijavno- dojavne jedinice (MPDJ) i timova hitne medicinske službe (HMS)- izazovi, rizici i mogućnosti unaprjeđanja</t>
   </si>
   <si>
     <t>Domagoj Turkalj, Stjepan Petričević, Igor Pelaić</t>
@@ -294,18 +276,6 @@
     <t>10:35 - 10:45</t>
   </si>
   <si>
-    <t>10:45 - 11:30</t>
-  </si>
-  <si>
-    <t>11:30 - 11:50</t>
-  </si>
-  <si>
-    <t>11:50 - 12:05</t>
-  </si>
-  <si>
-    <t>12:05 - 12:15</t>
-  </si>
-  <si>
     <t>12:15 - 12:25</t>
   </si>
   <si>
@@ -324,12 +294,6 @@
     <t>13:05 - 13:15</t>
   </si>
   <si>
-    <t>13:15 - 13:20</t>
-  </si>
-  <si>
-    <t>13:20 - 15:30</t>
-  </si>
-  <si>
     <t>15:30 - 15:45</t>
   </si>
   <si>
@@ -349,6 +313,155 @@
   </si>
   <si>
     <t>17:00 - 17:45</t>
+  </si>
+  <si>
+    <t>Standardizacija komunikacije između medicinske prijavno-dojavne jedinice (MPDJ) i timova hitne medicinske službe (HMS)- izazovi, rizici i mogućnosti unaprjeđanja</t>
+  </si>
+  <si>
+    <t>Medicinska prijavno-dojavna jedinica: središnja os zvijezde života u hitnoj medicini</t>
+  </si>
+  <si>
+    <t>10:45 - 10:55</t>
+  </si>
+  <si>
+    <t>Ivana Jakovljević, Stjepan Petričević, Igor Pelaić, Nada Bogović</t>
+  </si>
+  <si>
+    <t>10:55 - 11:40</t>
+  </si>
+  <si>
+    <t>OKRUGLI STOL: Standardizacija komunikacije između MPDJ, timova HMS i OHBP – kako uskladiti procese i protok informacija?</t>
+  </si>
+  <si>
+    <t>RADIONICA: Uvod u UZV za medicinske sestre/medicinske tehničare</t>
+  </si>
+  <si>
+    <t>Radno predsjedništvo: Perica Vucelić i Kata Ivanišević</t>
+  </si>
+  <si>
+    <t>11:40 - 12:00</t>
+  </si>
+  <si>
+    <t>09:00 - 12:00</t>
+  </si>
+  <si>
+    <t>Radno predsjedništvo: Igor Pelaić i Želimir Đurić</t>
+  </si>
+  <si>
+    <t>12:00 - 12:15</t>
+  </si>
+  <si>
+    <t>13:15 - 13:25</t>
+  </si>
+  <si>
+    <t>13:25 - 13:35</t>
+  </si>
+  <si>
+    <t>13:35 - 15:30</t>
+  </si>
+  <si>
+    <t>Želimir Đurić, Damir Važanić, Saša Balija</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>12:00 - 13:35</t>
+  </si>
+  <si>
+    <t>15:30 - 16:40</t>
+  </si>
+  <si>
+    <t>Radno predsjedništvo: Marijan Bašić i Damir Važanić</t>
+  </si>
+  <si>
+    <t>Identification, indications and activation of the HEMS team-role of Emergency Dispatch Centre</t>
+  </si>
+  <si>
+    <t>Specificities in the Management of Emergency Patients in HEMS</t>
+  </si>
+  <si>
+    <t>What else can we do to prepare patients for transport by HEMS?</t>
+  </si>
+  <si>
+    <t>HEMS: Key to timely interventions, coordination and safety in emergency situations</t>
+  </si>
+  <si>
+    <t>The Importance of HEMS for Virovitičko-podravska County</t>
+  </si>
+  <si>
+    <t>A Safer Life with Helicopter Emergency Medical Service – Case Study from a Rural Area of Karlovac Count</t>
+  </si>
+  <si>
+    <t>HEMS from the perspective of Emergency Dispatch Centre of Karlovac County</t>
+  </si>
+  <si>
+    <t>Standardization of communication between the Emergency Dispatch Centre and EMS teams - challenges, risks and opportunities for improvement</t>
+  </si>
+  <si>
+    <t>Medical Dispatch Center: Central Axis of the Star of Life in Emergency Medicine</t>
+  </si>
+  <si>
+    <t>DISCUSSION PANEL: Standardization of
+communication between Medical Dis-
+patch Center and EMS teams and ED
+- how to harmonize processes and
+information flow?</t>
+  </si>
+  <si>
+    <t>WORKSHOP: Introduction to UZV for
+nurses/medical technicians</t>
+  </si>
+  <si>
+    <t>Coffee break</t>
+  </si>
+  <si>
+    <t>Acute pain management in the pediatric population</t>
+  </si>
+  <si>
+    <t>Advantages of using oromucosal solution for treating epileptic status in children</t>
+  </si>
+  <si>
+    <t>The impact of call duration and criteria selection on the provision of telephone resuscitation instructions: An analysis from the e-Hitna system in 2023</t>
+  </si>
+  <si>
+    <t>The Medical Dispatcher stress level when giving instructions for cardiopulmonary resuscitation - analysis and research results</t>
+  </si>
+  <si>
+    <t>The Impact of Physical Activity on the Quality of Chest Compression during Cardiopulmonary Resuscitation</t>
+  </si>
+  <si>
+    <t>Cardiac arrest it the County Institute for Emergency Medicine of Zagrebačka County</t>
+  </si>
+  <si>
+    <t>Education of nurses / technicians in Basic Life Support with the use of Automatic External Defibrillator in Sestre milosrdnice University Hospital Center</t>
+  </si>
+  <si>
+    <t>Propedeutics for nurses / technicians - new CNSEM course</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Medical Dispatch Centre in a major accident</t>
+  </si>
+  <si>
+    <t>Organisation of scene in major accident</t>
+  </si>
+  <si>
+    <t>ED in a major accident</t>
+  </si>
+  <si>
+    <t>The role of CIEM and Crissis HQ of Ministry of Health in a major accident</t>
+  </si>
+  <si>
+    <t>WORKSHOP: The role of the Medical Dispatch Center in major accident and disaster</t>
+  </si>
+  <si>
+    <t>WORKSHOP: The role of the ED in a major accident and disaster</t>
   </si>
 </sst>
 </file>
@@ -457,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -488,6 +601,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -804,17 +930,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="38" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="47" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
@@ -838,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>11</v>
@@ -856,528 +982,602 @@
         <v>4</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="G2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="26.25" thickBot="1">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4"/>
-      <c r="G2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="45.75" thickBot="1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="39" thickBot="1">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="45.75" thickBot="1">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
+    <row r="13" spans="1:12" ht="64.5" thickBot="1">
+      <c r="A13" t="s">
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="J14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="J15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="G16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="30.75" thickBot="1">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60.75" thickBot="1">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="45.75" thickBot="1">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
+      <c r="J20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45.75" thickBot="1">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="J21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="J22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60.75" thickBot="1">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E20" t="s">
+      <c r="D23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="J23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
+      <c r="D24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="4"/>
-      <c r="G26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
       <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="G27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
         <v>61</v>
       </c>
-      <c r="E27" t="s">
+      <c r="J30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
         <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>9</v>
@@ -1388,58 +1588,91 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A33" s="5" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A33" t="s">
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="1"/>
+      <c r="D36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/2.xlsx
+++ b/data/2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\09-03-2025\git finalno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\11-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E6AAF0-EF2E-49E2-B10E-36702A061CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE9848-5E24-4896-AE48-022C7E0F6F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="163">
   <si>
     <t>VRSTA</t>
   </si>
@@ -463,12 +463,126 @@
   <si>
     <t>WORKSHOP: The role of the ED in a major accident and disaster</t>
   </si>
+  <si>
+    <t>Uvod Uspostavom helikopterske hitne medicinske službe u Republici Hrvatskoj stanovnicima Republike Hrvatske omogućena je adekvatnija primjena zdravstvene zaštite i brzine zbrinjavanja u hitnim stanjima. Dosadašnja istraživanja pokazala su da helikopterska hitna medicinska služba omogućuje brže, kvalitetnije i adekvatnije zbrinjavanje hitnih stanja.
+Metode U ovom radu analiziran je pregled literature dosadašnjih dostupnih znanstvenih spoznaja o značaju helikopterske hitne medicinske službe. Dostupni radovi temelje se na analizi podataka iz nacionalnih registara i dostupne literature te prema stručnim zaključcima timova koji rade u helikopterskoj hitnoj medicinskoj službi. 
+Rezultati  Dosadašnja istraživanja pokazala su kako korištenje helikoptera u zbrinjavanju hitnih pacijenata značajno doprinosi kvaliteti i brzini zbrinjavanja. Analizirani podatci traumatskih i netraumatskih baza podataka pokazali su kako je zbrinjavanje netraumatskih pacijenata značajno brže i omogućuje brži dolazak u bolnicu te samim time i brže i adekvatnije zbrinjavanje. Analiza podataka traumatskih slučajeva pokazuje kako je vremensko zbrinjavanje isto ili malo bolje, ali ključnim se pokazuje zbrinjavanje u adekvatnim trauma centrima čime se prate smjernice zbrinjavanja krvarenja i koagulopatije u politraumatiziranih pacijenata. Također, upotrebom helikopterske hitne medicinske službe značajno je manje rehabilitacije te je brži oporavak pacijenata i bolja kvaliteta života 
+Zaključak Helikopterska hitna medicinska služba značajno doprinosi kvaliteti zbrinjavanja 
+hitnih pacijenata te njihovoj adekvatnoj brzini zbrinjavanja. Također doprinosi rehabilitaciji i kvaliteti života po otpustu iz zdravstvene ustanove 
+Ključne riječi hitna medicina, helikopterska hitna medicinska služba, zbrinjavanje hitnog pacijenta</t>
+  </si>
+  <si>
+    <t>Sažetak Djelatnici hitne medicinske službe se svakodnevno u svom radu susreću s prijevozom životno ugroženog bolesnika u različitim situacijama, pri čemu se moraju voditi osnovnim pravilom što znači dovesti pravog pacijenta u pravo vrijeme na pravo mjesto. Prijevoz životno ugroženog pacijenta je prepoznat kao jedan od čimbenika rizika koji doprinose lošijem ishodu i treba mu posvetiti značajnu pažnju, posebno u hitnoj helikopterskoj medicinskoj službi (HHMS). Potrebno je imati na umu kako je unutrašnjost helikoptera ograničen prostor u koji treba smjestiti kompletnu medicinsku opremu, koja treba biti na dohvat ruke, jer je kretanje unutar helikoptera za vrijeme leta ograničeno, te se određeni postupci ne mogu izvoditi. Pravovremena priprema helikoptera i opreme te priprema pacijenta mogu smanjiti mogućnost nastanka neželjenih događaja. Prijevoz pacijenata helikopterom zahtijeva i primopredaju pacijenta između timova, što isto tako može dovesti do neželjenih događaja, a postoji i potreba za pravovremenom dobro koordiniranom organizacijom primopredaje pacijenta. Čimbenici rizika povezani s medicinskom opremom se preveniraju redovitim provjerom medicinske opreme, pripadajućeg pribora i lijekova potrebnih za medicinske intervencije, na početku svake smjene te nakon svake intervencije. Bez obzira na dužinu trajanja leta svaki od njih zahtjeva jednaku pripremu kako bi pacijent dobio maksimum zdravstvene skrbi. Priprema pacijenata za prijevoz helikopterom, zahtjeva pažljiv pristup kako bi se osigurala sigurnost i stabilnost pacijenta tijekom prijevoza. Prvo, nužno je izvršiti brzu, ali temeljitu procjenu kliničkog stanja pacijenta (ABCDE), uzimajući u obzir vitalne parametre, te identificirati sve potencijalne rizike ili komplikacije koje mogu nastati tijekom leta. Nakon toga, pacijent mora biti stabiliziran u što kraćem vremenskom razdoblju. To uključuje osnovne životne funkcije kao što su osiguranje prohodnosti dišnih puteva, kontrola krvarenja, primjena lijekova ili intubacija ako je potrebno. Ovisno o stanju pacijenta, može biti potrebno korištenje specifične medicinske opreme, poput ventilatora ili infuzijskih pumpi. Priprema pacijenta za prijevoz helikopterom kod primarnih intervencija započinje kontaktom HHMS tima s ozlijeđenom i/ili oboljelom osobom, dok kod sekundarnih intervencija započinje dolaskom tima izvanbolničke hitne medicinske službe (IHMS) kod pacijenta, zbrinjavanjem na mjestu događaja te u konačnici započinjanjem njegovog aktivnog liječenja i prije predaje timu HHMS-a. Vrlo često postupci koji se smatraju manje bitnim imaju veliko značenje kao i specifični uvjeti leta koji mogu utjecati na pacijentovo stanje. Treba imati na umu kako vibracija i buka mogu ometati rad pojedine medicinske opreme, ali i otežati praćenje stanja pacijenta. Praćenje stanja pacijenta ovisi o medicinskom timu koji u izazovnim uvjetima mora prepoznati sve promjene u stanju pacijenta jer svaki pacijent tijekom prijevoza mora imati kontinuitet medicinske skrbi. Bez obzira na najbolju moguću pripremu pacijenta, najbolju opremu i medicinski tim u svakom trenutku može doći do pogoršanja zdravstvenog stanja pacijenta i razvoja komplikacija, kao i do problema vezanih uz postupke koji su ranije učinjeni. O svakoj medicinskoj intervenciji i prijevozu vodi se propisana medicinska dokumentacija u kojoj moraju biti svi relevantni podaci. Dobro planiran i pripremljen prijevoz pacijenta helikopterom smanjuje moguće rizike na prihvatljivu mjeru, ali ih nikada ne eliminira u potpunosti.
+Ključne riječi HHMS, prijevoz helikopterom, čimbenik rizika, neželjeni događaj</t>
+  </si>
+  <si>
+    <t>Sažetak Hitna helikopterska medicinska služba (HHMS) osigurava brzi prijevoz i medicinsku intervenciju u situacijama gdje vrijeme i udaljenost predstavljaju kritične faktore za ishod pacijenta. HHMS omogućuje pravovremeno zbrinjavanje pacijenata i njihov prijevoz u odgovarajuće medicinske ustanove, osobito u slučaju teško dostupnih područja. Sustav HHMS temelji se na koordinaciji hitnih medicinskih timova i helikopterske službe, uz ključnu ulogu medicinske prijavno-dojavne jedinice (H-MPDJ). H-MPDJ djeluje kao “srce sustava”, prepoznajući indikacije za aktivaciju HHMS-a, pokrećući protokole aktivacije i koordinirajući sve uključene timove na terenu. HHMS se koristi za primarne intervencije, među-bolničke prijevoze i sekundarne transporte. U svim slučajevima naglasak je na preciznom planiranju i provođenju medicinskih intervencija, što uključuje osiguranje lokacija za slijetanje helikoptera, pripremu pacijenta te osiguranje sigurnosti svih uključenih timova. Stavlja se pozornost na tehničke i organizacijske aspekte rada, poput korištenja TETRA radio sustava za komunikaciju, protokola za sigurno slijetanje i polijetanje, te važnosti pravovremenog prenošenja informacija posadi helikoptera (pilot, kopilot i zrakoplovni tehničar). Naglasak je i na edukaciji medicinskih timova i ostalog osoblja o pravilnom ponašanju u blizini helikoptera kako bi se osigurala maksimalna sigurnost. Zaključno, HHMS predstavlja vitalnu komponentu zdravstvenog sustava, pružajući brzo i učinkovito rješenje za hitne situacije u udaljenim i teško dostupnim područjima. Uz prepoznate prednosti, ističu se i ograničenja poput vremenskih uvjeta i sigurnosnih izazova, što naglašava potrebu za kontinuiranom edukacijom i optimizacijom protokola. Ključne riječi: HHMS, pravovremenost, koordinacija, sigurnost, intervencija
+Ključne riječi HHMS, pravovremenost, koordinacija, sigurnost, intervencija</t>
+  </si>
+  <si>
+    <t>Sažetak Hitna helikopterska služba (HHMS) u Hrvatskoj ključna je za brzo pružanje pomoći u situacijama u kojima je vrijeme presudno, a zemaljski prijevoz nije moguć ili bi trajao predugo. HHMS predstavlja specijalizirani sustav koji koristi helikoptere za transport bolesnika, ozlijeđenih osoba, medicinskog osoblja, kao i za druge hitne zadatke. Ovaj sustav ne samo da doprinosi poboljšanju kvalitete zdravstvene zaštite, nego i spašavanju života u ekstremnim uvjetima. Helikopterske baze raspoređene su diljem Hrvatske, s ključnim lokacijama u Zagrebu, Splitu, Rijeci i Osijeku. Takva mreža omogućava pokrivanje cijelog teritorija i brzo djelovanje, bez obzira na udaljenost ili specifične uvjete terena. Baze su opremljene svim potrebnim resursima za besprijekoran rad helikopterske službe. Helikopteri su opremljeni za medicinske intervencije, što uključuje uređaje za ventilaciju, monitoriranje vitalnih funkcija i drugu potrebnu medicinsku opremu. Virovitica se nalazi u istočnom dijelu Hrvatske, a za ovaj dio zemlje, hitna helikopterska služba pokriva područje cijele Virovitičko-podravske županije i okolnih regija. Iako Virovitica nema vlastitu bazu HHMS-a, dostupnost helikopterske pomoći ovisi o najbližoj bazi i mogućnosti hitnog poziva. Za Viroviticu je najbliža HHMS Osijek, s kojom se usklađuju misije za brzo djelovanje u hitnim situacijama. Ovisno o situaciji, helikopter može doći do Virovitice u roku od 20-30 minuta. U 2024. godini HHMS baza Osijek je imala ukupno 30 intervencija od kojih je polovica, njih 15 odrađeno na području Virovitičko Podravske županije. Površinu od 2024km2, sa 70368 stanovnika, pokriva ZHMVPŽ. Na području VPŽ smještena je manja O.B.Virovitica u kojoj pacijenti nemaju mogućnosti medicinskog zbrinjavanja složenijih stanja i akutnih oboljenja koje zahtijevaju intervenciju neurokirurgije, torakalne kirurgije, opsežnije laboratorijske i nuklearne dijagnostike, rješavanje politrauma, invazivne kardiologije, te opsežnijeg zbrinjavanja i dijagnostike pedijatrijskih pacijenata. Zbrinjavanje hitnih pacijenata bez HHMS ne bi bilo moguće obzirom da udaljenost do najbližeg KBC od OB Virovitica iznosi 132 km, odnosno 1 h i 56 min u idealnim uvjetima cestovnog prometa.
+Ključne riječi Helikopterska hitna medicinska služba; Hitna medicinska služba; Klinički bolnički centar; Opća bolnica</t>
+  </si>
+  <si>
+    <t>Sažetak Helikopterska hitna medicinska služba (HHMS) znači sigurniji život sa sasvim sigurno povećanom šansom za preživljavanje u odnosu na doba prije HHMS-a. Naime, Karlovačka županija nije samo centar grada Karlovca i pet minuta transporta do bolnice ili 45 minuta do KBC-a Zagreb, već pokriva veliku površinu od 3 622 kvadratna kilometra te se ubraja u red većih županija. Tu je sjecište i čvorište najvažnijih prometnica koje povezuju Europu s jadranskom obalom. Nesreće, nezgode te ostala životno-ugrožavajuća oboljenja nerijetko se dogode na područjima do kojih najbližem kopnenom timu hitne medicinske službe treba i do 30 minuta, te nakon početnog zbrinjavanja hitnog pacijenta, do najbliže bolnice cestovnim putem i do 60 minuta. Dakle, kada se govori o rubnim dijelovima Karlovačke županije koji prema veličini naselja (broja stanovnika ili stanova), gustoči naselja, administrativnim statusom spadaju u ruralna područja, mnogi hitni pacijenti će potpunu ili konačnu bolničku skrb dobiti najranije za 90, odnosno realnije 120 minuta. Nadalje, što se ide dalje prema periferiji to je teren sve zahtjevniji za vozila i neugodniji za pacijente. Intervencija HHMS-a u ovom prikazu slučaja, uspješno je izvršena u listopadu 2024. godine te je opravdala tvrdnju “Sigurniji život uz helikoptersku hitnu medicinsku službu”. Radilo se o pacijentici s plućnim komorbiditetima u pogoršanju, srčano-krvožilnim, moždano-krvožilnim te komorbiditetima endokrinološkog sustava, odnosno pacijentica je imala sve predisponirajuće čimbenike za iznenadni srčani zastoj. Transport do bolnice trajao bi više od 60 minuta, a ukupno vrijeme trajanja zbrinjavanja 120. Zatražena je pomoć HHMS-a koja je odobrena. Pacijenticu je preuzeo helikopterski tim te joj pružio još kvalitetniju skrb i prevezao u bolnicu, sve unutar 60 minuta. Koordinacija intervencije išla je vrlo lako i brzo. Naime, nakon pregleda pacijentice od strane magistra sestrinstva, specijaliste u djelatnosti hitne medicine s tima T2 Zavoda za hitnu medicinu Karlovačke županije, medicinsko prijavno-dojavnoj jedinici (MPDJ) Karlovac javljena je potreba za HHMS-om. Dispečer je zahtjev za intervencijom proslijedio MPDJ-u Grada Zagreba koji koordinira zagrebački tim HHMS-a, a koji je odobrio i poslao tim HHMS-a. To je sveukupno trajalo dvije do tri minute, a unutar pet minuta tim T2 koji se je nalazio uz pacijenticu imao je povratnu informaciju s točnim vremenom dolaska helikoptera na mjesto intervencije. Tim HHMS-a sletio je nekih 40-ak metara od pacijentičine kuće, preuzeo je te krenuo za KB Dubrava unutar deset minuta. Pacijentica je hospitalizirana u KB Dubrava iz koje je otpuštena na kućno liječenje nakon dva tjedna.
+Ključne riječi sigurniji život, prikaz slučaja, helikopterska hitna medicinska služba, HHMS, iznenadni srčani zastoj</t>
+  </si>
+  <si>
+    <t>Sažetak Hrvatski zavod za hitnu medicinu (HZHM) oduvijek je ukazivao na važnost i neophodnost uvođenja HHMS-a kako bi se svi hitni pacijenti, bez obzira gdje se u Hrvatskoj nalazili, primarnim letovima zbrinuli u okviru “zlatnog sata”. Kao dio projektnog tima od samih početaka, HZHM je dao značajan stručni medicinski doprinos projektu koji će osigurati jednaku dostupnost hitne medicinske skrbi svim građanima i posjetiteljima RH. Na sjednici Vlade Republike Hrvatske 31. kolovoza 2023. Vlada Republike Hrvatske donosi suglasnost za osnivanje HHMS . Uspostavom ovog modela HHMS-a, RH će se pridružiti većem broju europskih zemalja koje ga već primjenjuju, poput Njemačke, Italije, Austrije, Danske, Češke i Slovačke, a gdje se pokazao kao iznimno ekonomičan i učinkovit. Helikopterska hitna medicinska služba (HHMS) krenula je s radom u subotu, 30. ožujka 2024. godine, paralelno iz sve četiri baze – Osijeka, Rijeke (Krk), Splita (Brač) i Zagreba.
+Prije samog početka rada Helikopterske hitne medicinske službe javlja se iz neznanja strah , nedoumica i nepovjerenje. Kako će sve to skupa izgledati, na koje intervencije se šalje helikopter, gdje će sletjeti helikopter itd. Sumnja u kolege hoće li zatražiti intervenciju helikoptera kada to bude potrebno ili ne puno je tu nagađanja i nedoumica. Donošenjem i objavljivanjem smjernica i uputa za medicinske dispečere za aktiviranje helikopterske hitne medicinske službe Zavoda za hitnu medicinu nestaju sve nedoumice i nagađanja. Do današnjeg dana donesena je i treća verzija smjernica i uputa za medicinske dispečere za aktiviranje helikopterske hitne medicinske službe kako bi se što bolje i učinkovitije koristila helikopterska hitna medicinska služba. HHMS će provoditi tri vrste intervencija, primarne, sekundarne i međubolničke za akutno životno ugrožene pacijente.  Primarne intervencije podrazumijevaju pružanje hitne medicinske skrbi pacijentu odlaskom tima HHMS-a izravno na mjesto intervencije odmah po primitku poziva i, ovisno o lokaciji intervencije, njegov prijevoz u jedan od kliničkih bolničkih centara Rijeka, Osijek i/ili Split te u Kliničku bolnicu Dubrava. Sekundarne intervencije odnose se na preuzimanje prethodno zbrinutog pacijenta od zemaljskog tima HMS-a i njegov prijevoz na daljnje bolničko liječenje u četiri spomenute bolnice, a međubolničke intervencije na prijevoz hitnog pacijenata između dvije bolničke zdravstvene ustanove.
+Unatoč donesenim smjernicama i uputama za medicinske dispečere za aktiviranje helikopterske hitne medicinske službe ispočetka je sve još bilo pomalo kaotično u glavama djelatnika MPDJ ZZHM Karlovačke županije s toga je odlučeno da se sprovedu interne edukacije i vježbe za aktiviranje HHMS. Učilo se upisivanje koordinata pošto same nisu bile odmah implementirane u program E-hitna. Također su ispisana sva nogometna igrališta na području Karlovačke županije i ispisane su njihove koordinate gdje bi helikopter mogao slijetati pošto nisu točno bila definirana sletna mjesta. Za svako to slijetno mjesto izračunata su i okvirno vrijeme leta helikoptera iz baze Zagreb do tog mjesta i natrag do KB Dubrava. Ključne riječi HHMS, MPDJ, Karlovačka županija</t>
+  </si>
+  <si>
+    <t>Sažetak Učinkovita komunikacija između medicinske prijavno-dojavne jedinice (MPDJ) i timova hitne medicinske službe (HMS) ključna je za brzo i točno usmjeravanje timova na intervencije te osiguravanje optimalne skrbi za pacijente. Unatoč postojećim standardima, u praksi postoje izazovi koji mogu utjecati na pravovremenost i sigurnost prenesenih informacija. Standard vremena trijaže poziva određuje da medicinski dispečer u roku od 60 sekundi mora donijeti odluku o crvenom (A) prioritetu hitnosti te unijeti minimalni set podataka, uključujući GEO lokaciju i potvrdu kriterija. Nakon mobilizacije, tim HMS putem GARMIN sustava prima cjelovitu napomenu u formi poruke, dok prošireni podaci (ime, prezime, dob, razlog poziva) dolaze putem TETRA sustava nakon što se tim javi da kreće. Međutim, postoje izazovi u osiguravanju konzistentnosti i privatnosti komunikacije. Naime, pri prijenosu osjetljivih informacija putem TETRA sustava, osobni podaci pacijenta mogu biti nenamjerno izloženi osobama koje nisu dio intervencijskog tima, što predstavlja rizik povrede privatnosti. Uvođenjem kodiranih oznaka (npr. H.35.08 – akutna psihička reakcija kod žrtve nasilja) umjesto verbalnog prijenosa detalja, smanjila bi se mogućnost neovlaštenog pristupa informacijama. Također, nije standardizirano tko iz HMS tima odgovara na poziv putem TETRA-e, što može dovesti do nesporazuma i kašnjenja u postupanju. U praksi se često timovi ne pozivaju isključivo po identifikacijskom broju, već prema lokaciji, imenu nositelja tima ili osobnim imenima članova, što dodatno može uzrokovati neujednačenost u komunikaciji. Uvođenje suvremenih informatičkih uređaja, poput tableta, s pristupom zapisima poziva moglo bi smanjiti verbalnu razmjenu osjetljivih podataka i omogućiti ažuriranje statusa pacijenta u realnom vremenu, no izazovi poput pokrivenosti signalom i sigurnosnih protokola zahtijevaju daljnju evaluaciju. Primjer dobre prakse može se pronaći u standardiziranim komunikacijskim protokolima unutar MUP-a, gdje je komunikacija jasna i strukturirana, bez suvišnih informacija. Primjena sličnog modela u hitnoj medicini, uz dodatne sigurnosne mjere i tehnološka poboljšanja, mogla bi značajno unaprijediti sigurnost i učinkovitost komunikacije između MPDJ-a i HMS timova. Potreban je jedinstveni komunikacijski standard koji će osigurati brzo, jasno i sigurno prenošenje informacija između MPDJ-a i HMS timova. Moguća poboljšanja uključuju korištenje kodiranih oznaka umjesto verbalne predaje osjetljivih podataka, preciznu definiciju odgovorne osobe za komunikaciju unutar tima te formaliziranje jedinstvenog načina obraćanja i potvrđivanja zaprimljenih informacija. Uvođenje standardiziranih komunikacijskih protokola moglo bi unaprijediti kvalitetu hitnih intervencija i smanjiti rizik od nesporazuma i kompromitacije podataka pacijenata.
+Ključne riječi medicinska prijavno-dojavna jedinica, hitna medicinska služba, standardizacija komunikacije, sigurnost podataka, TETRA sustav</t>
+  </si>
+  <si>
+    <t>Sažetak Zvijezda života simbolizira ključne faze zbrinjavanja pacijenata u hitnoj medicini, uključujući ranu detekciju, dojavljivanje, brz odgovor, skrb na mjestu događaja, skrb tijekom transporta i prijevoza u odgovarajuću zdravstvenu ustanovu. Medicinska prijavno-dojavna jedinica (MPDJ) ima presudnu ulogu u povezivanju i koordinaciji svih ovih faza, osiguravajući pravovremeno i učinkovito zbrinjavanje pacijenata. Uloga MPDJ-a najčešće se prepoznaje u ranoj detekciji i dojavljivanju (early detection i early reporting), gdje djeluje kao prva kontaktna točka za pozivatelje hitne medicinske službe u hitnim situacijama. Analizom informacija i procjenom hitnosti stanja MPDJ aktivira odgovarajuće resurse i timove hitne medicinske službe. Međutim, njezina uloga se proteže na sve krakove zvijezde života. MPDJ osigurava brzi odgovor (early response) kroz koordinaciju resursa na terenu, uključujući žurne službe poput policije i vatrogasaca, kao i drugih službi. Kroz svoju ulogu centralne točke za prijem poziva i koordinaciju resursa, MPDJ osigurava pravovremenu, jasnu i svrhovitu komunikaciju između svih sudionika u sustavu hitne medicinske službe. Pravodobna razmjena informacija ključna je za donošenje odluka, smanjenje vremena reakcije i poboljšanje ishoda zbrinjavanja pacijenata. Bez učinkovite komunikacije, integracija svih krakova zvijezde života ne bi bila moguća. Skrb na mjestu događaja (on scene care) i tijekom transporta (care in transit) podržava se stalnom komunikacijom s timovima hitne medicinske službe, kao i najavom dolaska pacijenata u bolnice. Time se omogućuje priprema specifičnih resursa, poput dijagnostičkih alata (npr. CT uređaja) ili specijalističke skrbi (npr. neurokirurgije), čime se osigurava učinkovitost i brzina zbrinjavanja. Dodatno, MPDJ ima ključnu ulogu u prijevozu pacijenata u odgovarajuću, definitivnu zdravstvenu ustanovu (transfer to definitive care), kao i u edukaciji građana i medicinskih djelatnika. Kroz edukaciju MPDJ unapređuje razumijevanje sustava hitne medicinske službe, potiče racionalno i pravilno korištenje žurnih službi. Kroz ovu prizmu, MPDJ nije samo tehnička i organizacijska komponenta, već ključni element koji integrira sve faze zvijezde života, unapređujući sigurnost pacijenata i cjelokupnu kvalitetu hitne medicinske skrbi.
+Ključne riječi Medicinska prijavno-dojavna jedinica, zvijezda života, koordinacija hitnih službi, hitna medicina, edukacija</t>
+  </si>
+  <si>
+    <t>Sažetak Zbrinjavanje boli u hitnim stanjima pedijatrijske populacije izuzetno je važno jer djeca često ne mogu adekvatno izraziti svoja bolna iskustva. U takvim situacijama, medicinsko osoblje mora imati specifičan pristup kako bi se osigurala učinkovita kontrola boli, uzimajući u obzir fizičke, emocionalne i razvojne potrebe djece. Zbrinjavanje boli zahtijeva multidisciplinarni pristup koji uključuje obitelj i medicinsko osoblje sa znanjem o primjeni analgetske terapije.
+Bol je najčešći razlog traženja hitne medicinske pomoći bilo u izvanbolničkom ili bolničkom okruženju, ali unatoč tome ostaje nedovoljno prepoznata, priznata, procjenjivana i nedovoljno liječena. Akutna bol je vrlo stresogena i ako je neliječena, dugoročno može dovesti do komplikacija i razvoja kronične boli. 
+Tijekom razvoja medicine u cijelosti i usprkos napretku u zbrinjavanju boli, oligoanalgezija je ostala vodeći problem kod pacijenata koji traže medicinsku skrb, pogotovo u pedijatrijskoj populaciji. Neki od najčešćih razloga su ograničena dostupnost analgezije, pogotovo u izvanbolničkim uvjetima, organizacije izvanbolničke hitne medicinske službe (npr. prisutnost liječnika) i nedostatnog znanja o zbrinjavanju boli. No sada, s obzirom na specijalističko usavršavanje prvostupnika sestrinstva u djelatnosti hitne medicine možemo se spremnije i sigurnije uhvatiti u koštac s problemom oligoanalgezije u Hrvatskoj.
+Zbrinjavanje boli u hitnim stanjima pedijatrijskih bolesnika zahtijeva promišljeno i osjetljivo pristupanje bolnom iskustvu djeteta. Bol u hitnim stanjima može biti rezultat ozljede, infekcije, ili akutnih medicinskih stanja. Kako bi se osigurao odgovarajući odgovor na bol, važno je uzeti u obzir nekoliko čimbenika: vrsta boli, intenzitet boli, dob djeteta, njegovu povijest bolesti i specifične potrebe. Važno je koristiti prilagodljive procjene boli prema dobi, kao prvi korak u analgeziji.
+Ne farmakološki pristupi imaju važnu ulogu u zbrinjavanju boli. Djeca, osobito mlađa, bolje reagiraju na tehniku distrakcije, koja uključuje igre, priče, multimedijske sadržaje ili interakciju sa medicinskim osobljem i roditeljima. Roditeljska prisutnost može smiriti dijete i pružiti emocionalnu podršku kao što i emocionalna sigurnost i povjerenje u medicinski tim mogu imati pozitivan utjecaj na smanjenje percepcije boli.
+Farmakološki pristup terapiji boli obuhvaća uporabu analgetika i anestetika. U prvim fazama zbrinjavanja boli najčešće se koriste analgetici poput paracetamola ili NSAR-a, dok se za teže boli mogu koristiti opioidi poput morfija. Analgezija se mora prilagoditi težini ozljede ili bolesti jer je cilj osigurati učinkovitu analgeziju uz minimaliziranje rizika od nuspojava.
+U pojedinim Europskim zemljama smjernice za liječenje boli postoje već desetljećima no pan-Europske smjernice do sada nisu postojale. Pod pokroviteljstvom Europskog društva za hitnu medicinu (EUSEM), Europska inicijativa za bol, 2019. godine osmislila je sveobuhvatan priručnik, a uključuje smjernice za liječenje akutne boli u hitnoj medicini, za bolničke i izvanbolničke uvjete, kako kod odraslih tako i kod djece. 
+Znanje o liječenju boli u izvanbolničkom, kao i bolničkom okruženju je ograničeno i nedostaju sustavni programi edukacije o zbrinjavanju boli. S time na umu približiti ću vam pristup za kupiranje boli kod djece u hitnim stanjima, stavljajući naglasak na farmakoterapijski pristup, kako bi problem oligoanalgezije postao što manji, te kako bi nam svima bila jasnija važnost zbrinjavanja boli u pedijatrijskoj populaciji.
+Ključne riječi Zbrinjavanje boli; Oligoanalgezija; Farmakoterapija; Pedijatrijska populacija</t>
+  </si>
+  <si>
+    <t>Sažetak Epileptički status (lat. status epilepticus) hitno je neurološko stanje najčešće prisutno u pedijatrijskoj populaciji, a manifestira se kao epileptički napad dužeg trajanja, karakteriziran neprestanim slijedom ponavljajućih generaliziranih toničko-kloničkih napada. Pravovremena intervencija i adekvatno zbrinjavanje ključni su za smanjenje komplikacija i dugoročnih posljedica. U periodu trajanja epileptičkog statusa pacijent nema vremena za odmor između napadaja, a posljedice ovog stanja mogu biti trajne. Kod kasnog korigiranja epileptičkog statusa kod pacijenta može doći do oštećenja moždanih sinapsi, smrti i oštećenja neurona te smrti. Epileptički status može nastati kao posljedica febriliteta, otrovanja, tumora, infekcija, trauma i poremećaja razvoja mozga kod djece, te kod djece koja boluju od neuroloških i metaboličkih bolesti. Dijeli se na dvije vrste ovisno o izraženosti motoričkih simptoma kod djeteta: konvulzivni i nekonvulzivni epileptički status. Može se javiti i u parcijalnom obliku, koji se dijeli na jednostavni i kompleksni parcijalni status. Jednostavni parcijalni napadi uključuju žarišne motoričke simptome, dok kompleksni parcijalni napadi često uključuju smanjenu svijest i ponavljajuće sumanute pokrete. Kao prva linija liječenja, pri saniranju epileptičkog statusa koriste se benzodiazepini. Pojavom epileptičkog napada u izvanbolničkim okruženjima, od iznimne je važnosti da su okolina i zajednica u kojoj dijete boravi (vrtić, škola, učenički dom) educirani i adekvatno pripremljeni za zbrinjavanje istog. U izvanbolničkim uvjetima, benzodiazepini se primjenjuju rektalnim putem ili oromukozalno tj. putem bukalne sluznice. U Republici Hrvatskoj, za liječenje produljenog epileptičkog statusa u djece najčešće se koristi oromukozalna solucija midazolama. Ovaj način primjene benzodiazepina u svrhu zbrinjavanja napada vrlo je učinkovit iz razloga što je sam način primjene jednostavan i lako objašnjiv okolini i zajednici u kojoj dijete boravi. Također, njegova primjena donosi više prednosti nego rektalna primjena benzodiazepina. Medicinska sestra mora poznavati simptome, način dijagnosticiranja i način zbrinjavanja epileptičkog statusa kako bi mogla pružiti sve potrebne informacije zajednici u kojoj dijete boravi o zbrinjavanju samog napada i kako postupati pri pojavi epileptičko statusa do dolaska izvanbolničke hitne.
+Ključne riječi status epilepticus, dijete, medicinska sestra, oromukozalna solucija, benzodiazepine</t>
+  </si>
+  <si>
+    <t>Sažetak Prepoznavanje srčanog zastoja u izvanbolničkom okruženju i pravovremeno pružanje telefonskih uputa za reanimaciju (T-CPR) ključni su faktori za preživljavanje pacijenata. Medicinske prijavno-dojavne jedinice (MPDJ) u Republici Hrvatskoj koriste Hrvatski indeks prijema hitnog medicinskog poziva za standardizaciju procjene hitnih stanja i donošenje odluka o pružanju uputa. Do kraja 2023. godine Indeks je uključivao dva kriterija za pacijente bez svijesti i bez normalnog disanja: A.01.01 (iznenadni srčani zastoj, pretpostavka da je povezan sa srcem) i A.01.02 (srčani zastoj kao posljedica hipoksije ili traume, pretpostavka), dok se od 2024. godine ova podjela ukida revizijom Indeksa. Cilj ovog istraživanja je analizirati povezanost ovih kriterija Indeksa s duljinom trajanja razgovora i učestalosti pružanja HM003 uputa prije uvođenja promjena. Retrospektivna analiza obuhvatila je sve pozive zaprimljene u MPDJ-u Zavoda za hitnu medicinu Zagrebačke županije tijekom 2023. godine. Analizirani su podaci o ukupnom broju poziva, udjelu poziva s indeks kodovima A.01.01 i A.01.02, učestalosti primjene HM003 uputa te povezanosti trajanja razgovora s njihovim pružanjem. Rezultati pokazuju da je duljina trajanja razgovora značajno povezana s učestalošću pružanja HM003 uputa. Dulji razgovori češće uključuju davanje uputa za reanimaciju, dok kraći razgovori mogu upućivati na izazove u komunikaciji, poput nesigurnosti pozivatelja, nedovoljne suradnje pozivatelja ili otežanog prepoznavanja srčanog zastoja. Zaključno, analiza podataka iz 2023. godine pruža vrijedne uvide u komunikacijske obrasce medicinskih dispečera. Ovi rezultati mogu doprinijeti unaprjeđenju edukacije dispečera, prilagodbi komunikacijskih protokola u situacijama otežane suradnje pozivatelja te boljem razumijevanju utjecaja trajanja razgovora na ishod intervencije. Posebno se ističe uloga komunikacijskih tehnika u ostvarivanju brzog persuazivnog učinka kod pozivatelja koji nisu voljni surađivati, nisu sigurni u prepoznavanje hitnog stanja ili imaju ograničenu zdravstvenu pismenost. Aktivno slušanje, tehnika ponavljajućih zahtjeva i tehnika reflektiranja mogu pomoći dispečerima u probijanju početnog otpora pozivatelja, što može značajno utjecati na pravovremeno prepoznavanje srčanog zastoja i povećati učestalost pružanja telefonskih uputa za reanimaciju. Međutim, dosadašnje komunikacijske strategije nisu uvijek dovoljne za osiguravanje optimalne suradnje pozivatelja u visokostresnim situacijama. Rezultati ovog istraživanja ukazuju na potrebu za razvojem i primjenom dodatnih, specifičnih komunikacijskih tehnika i alata prilagođenih upravo ovakvim situacijama. 
+Daljnja istraživanja trebala bi se usmjeriti na razvoj i primjenu novih metoda koje bi dodatno unaprijedile učinkovitost dispečerske komunikacije u visokostresnim hitnim situacijama.
+Ključne riječi srčani zastoj, telefonske upute za reanimaciju, medicinske prijavno-dojavne jedinice, komunikacija, e-Hitna</t>
+  </si>
+  <si>
+    <t>Sažetak Medicinski dispečeri, kao prvi kontakt u hitnim medicinskim situacijama, suočavaju se s iznimno stresnim radnim uvjetima, osobito prilikom davanja uputa za kardiopulmonalnu reanimaciju (KPR). Ova uloga zahtijeva brze odluke, jasnu komunikaciju i precizne upute koje često mogu značiti razliku između života i smrti. Ovo istraživanje imalo je za cilj ispitati razinu stresa medicinskih dispečera tijekom obavljanja ove ključne zadaće, identificirati uzroke stresa i posljedice koje on ostavlja, kao i razmotriti strategije za njegovo učinkovito upravljanje. Kvalitativno istraživanje provedeno je među medicinskim dispečerima Nastavnog zavoda za hitnu medicinu Varaždinske županije putem polustrukturiranih intervjua. Fenomenološka analiza omogućila je dublji uvid u njihova iskustva. Glavni uzroci stresa identificirani su kao hitnost situacija, emocionalna povezanost s pozivateljima, strah od pogrešaka te nedostatak kontrole nad ishodima reanimacije. Nedostatak vizualnog kontakta s pacijentima, komunikacija s pozivateljima koji nisu educirani o osnovnim koracima KPR-a i rad pod vremenskim pritiskom dodatno pogoršavaju situaciju. Rezultati pokazuju kako stres negativno utječe na fizičko i mentalno zdravlje dispečera. Simptomi uključuju iscrpljenost, glavobolje, smanjenu koncentraciju i emocionalnu nestabilnost. Dugoročne posljedice stresa uključuju sindrom sagorijevanja (burnout), što može rezultirati smanjenjem radne učinkovitosti i povećanim rizikom od grešaka. Istovremeno, dispečeri su istaknuli povjerenje u svoje kompetencije i profesionalnost, što im pomaže da se lakše nose s izazovima posla. Kao ključne strategije za smanjenje stresa, sudionici istraživanja navode važnost kontinuirane edukacije, podrške na radnom mjestu, jasne procedure i redovite supervizije. Posebno se ističe potreba za tehnikama upravljanja stresom, poput opuštanja i mindfulness metoda, kao i pružanje psihološke pomoći. Uz to, istaknuta je važnost javnih edukacijskih kampanja kako bi se povećala osviještenost laika o osnovnim koracima KPR-a, čime bi se smanjilo opterećenje medicinskih dispečera tijekom hitnih situacija. Zaključno, razumijevanje specifičnih uzroka stresa te implementacija učinkovitih strategija za njegovo upravljanje ključni su za osiguravanje profesionalne učinkovitosti i psihofizičkog zdravlja medicinskih dispečera. Uvođenje sustavnih mjera, poput edukacija i podrške na radnom mjestu, može značajno poboljšati radnu atmosferu, ali i cjelokupni ishod hitnih medicinskih intervencija.
+Ključne riječi medicinski dispečer, stres, kardiopulmonalna reanimacija, sindrom sagorijevanja, strategije upravljanja stresom</t>
+  </si>
+  <si>
+    <t>Abstract 
+Introduction Cardiopulmonary resuscitation is a critical intervention in cardiac arrest, the results of which may depend on the physical fitness of the person performing chest compressions. Aim: This study examines the impact of physical activity level and gender on the quality of chest compressions during cardiopulmonary resuscitation. 
+Methods The study included 34 out-of-hospital emergency medical service employees who completed a socio-demographic questionnaire and the International Physical Activity Questionnaire to determine their physical activity level. Participants performed chest compressions on a simulated manikin for eight minutes, with parameters measured every two minutes. Parameters analyzed included compression depth, chest recoil, frequency of compression and overall quality of chest compressions. 
+Results A positive correlation was found between the level of physical activity and the quality of chest compressions (p &lt; 0.001). Participants with a high level of physical activity achieved better results in the overall quality of compression (p = 0.001), compression depth (p = 0.009) and compression frequency (p = 0.003), while the differences in chest recoil were not statistically significant (p = 0.470). Gender had no significant effect on the overall quality of chest compression (p = 0.556), compression depth (p = 0.229) or compression frequency (p = 0.851); however, female participants achieved better results for chest recoil (p = 0.034). 
+Conclusion The level of physical activity has a significant influence on the quality of chest compression, while the impact of gender is limited to specific parameters such as chest recoil. These findings underscore the importance of physical fitness among emergency medical service personnel in enhancing the quality of cardiopulmonary resuscitation
+Keywords emergency medical services, cardiopulmonary resuscitation, physical activity</t>
+  </si>
+  <si>
+    <t>Sažetak Srčani arest je ozbiljno hitno medicinsko stanje, a uspješno zbrinjavanje ovisi o čimbenicima kao što su dob pacijenata, početni ritam, pravovremena reanimacija te primjena protokola hitne medicinske službe. Ovo istraživanje pruža sveobuhvatan pregled ključnih aspekata zbrinjavanja srčanog aresta u Zavodu za hitnu medicinu Zagrebačke županije. 
+Metode U istraživanje je uključeno 567 pacijenata sa srčanim arestom zbrinutih na području Zagrebačke županije. Analizirani su podaci o demografskim karakteristikama, vrstama srčanog aresta, početnom srčanom ritmu, učestalosti laičkog i profesionalnog oživljavanja te postizanju povratka spontane cirkulacije (ROSC). 
+Rezultati • Spol: Muškarci su činili većinu pacijenata (63,3 %, n=359), dok su žene činile 36,7  % (n=208). • Dob pacijenata: Prosječna dob iznosila je 70 godina (SD=15,94), s rasponom od novorođenčadi do 101 godine. • Vrsta srčanog aresta: Medicinski razlozi dominirali su (66,5%, n=377), dok su traumatski uzroci činili 6,9 % (n=39). • Početni ritam: Najčešće je zabilježena asistolija (57,8 %, n=328), dok su pacijenti s ventrikularnom fibrilacijom (5,8 %, n=33) imali najveću stopu ROSC-a (27,3 %). • Laičko oživljavanje: Provedeno je u 27,9 % slučajeva (n=158), dok je u 53,8 % slučajeva (n=305) izostalo. • Profesionalno oživljavanje: Provedeno je u 48,3 % slučajeva (n=274). • Primjena telefonski navođene reanimacije: Zabilježena je u 24,7 % slučajeva (n=140), ali nije bila značajno povezana s postizanjem ROSC-a (χ²=0,132, p=0,936). • ROSC do bolnice: Povratak spontane cirkulacije postignut je u samo 6 % slučajeva (n=34). Utvrđena je značajna povezanost između početnog ritma i postizanja ROSC-a (χ²=95,171, p&lt;0,001). 
+Zaključak Rezultati istraživanja ukazuju na nisku stopu ROSC-a (6 %) i visoku prosječnu dob pacijenata (70 godina), što može utjecati na ishode reanimacije. Statistički značajna povezanost između početnog ritma i ROSC-a naglašava važnost rane defibrilacije kod ritmova poput ventrikularne fibrilacije. Niska stopa laičkog oživljavanja i telefonski navođene reanimacije sugreiraju na potrebu za dodatnom edukacijom kako građana (laika) tako i medicinskih dispečera s ciljem boljih ishoda reanimacije.
+Ključne riječi srčani arest, zbrinjavanje,Zagrebačka županija</t>
+  </si>
+  <si>
+    <t>Sažetak Osnovno održavanja života (BLS) i automatska vanjska defibrilacija (AVD) predstavljaju ključne elemente hitne medicinske skrbi koji se primjenjuju tijekom iznenadnih zastoja srca ili prestanka disanja. BLS+AVD uključuje brze i vrlo često ključne korake kako bi se održala cirkulacija krvi i osigurala dostava kisika vitalnim organima. Istraživanja su pokazala da rijetko korištene vještine s vremenom propadaju te da proceduralni zadaci pokazuju veću tendenciju propadanja u odnosu na fizičke zadatke. Kvalitetna edukacija i redovito obnavljanje znanja o BLS-u i AVD-u od velike su važnosti kako bi se osigurala pravovremena i učinkovita reakcija u hitnim situacijama. Ove vještine igraju ključnu ulogu u spašavanju života i ključno je za održavanje spremnosti i učinkovitosti u situacijama hitne medicinske skrbi.
+Klinički bolnički centar Sestre milosrdnice u suradnji s Hrvatskim sestrinskim društvom hitne medicine provodi edukaciju, obnovu znanja i vještina svih medicinskih sestara/tehničara s naglaskom na novozaposlene. U 2024. godini edukaciju je uspješno završilo 414 medicinskih sestara/ tehničara što je gotovo jedna četvrtina ukupno zaposlenih medicinskih sestara u KBC Sestre milosrdnice. Od toga broja 95 su bile novozaposlene medicinske sestre. Polaznici edukacije na početku i na kraju tečaja provode samoprocjenu svog znanja i vještina BLS-a. Prosječna početna ocjena bila je 2,87 dok je izlazna bila 4,49. Edukacija ne samo da pruža medicinskim sestrama visoki nivo spremnosti u intervencijama spašavanja života, već i osnažuje njihovo samopouzdanje i spremnost za hitno djelovanje u kritičnim situacijama Plan je u narednom periodu u edukaciju uključiti i druge zdravstvene djelatnike KBC Sestre milosrdnice; inženjere medicinske radiologije, njegovateljice, vozače. Upravo i Europsko reanimacijsko društvo naglašava potrebu uključivanja pojedinih sustava (zdravstvo, obrazovanje)  kroz program Sistem spašava život  (The Systems Saving Lives) radi što povoljnijeg ishoda u slučaju srčanog zastoja. Kontinuirana edukacija medicinskih sestara/tehničara je  stup u pružanju sigurne, kvalitetne i učinkovite zdravstvene skrbi, posebno kada je riječ o intervencijama koje spašavaju živote.
+Ključne riječi osnovno održavanje života, edukacija, obnova znanja</t>
+  </si>
+  <si>
+    <t>Sažetak Edukacija za medicinske sestre i tehničare iz područja propedeutike pruža temeljna znanja i vještine potrebne za pravilnu procjenu stanja pacijenta, komunikaciju i vođenje medicinske dokumentacije. Propedeutika, kao disciplina, usmjerena je na razvoj sposobnosti prepoznavanja simptoma, izvođenja osnovnih kliničkih pregleda i postavljanja diferencijalnih dijagnoza. Cilj ovog tečaja je osposobiti medicinske sestre i tehničare za učinkovitu primjenu propedeutičkih metoda u svakodnevnoj praksi, poboljšavajući njihovu sposobnost prepoznavanja promjena u zdravstvenom stanju pacijenata te pravovremeno reagiranje.
+Kroz teorijski i praktični dio tečaja, polaznici će steći znanja o anamnezi, inspekciji, palpaciji, perkusiji i auskultaciji, koje su osnovne metode fizikalnog pregleda. Anamneza uključuje prikupljanje informacija o pacijentovoj povijesti bolesti i simptomima. Inspekcija je vizualni pregled pacijenta kako bi se otkrile vidljive promjene ili simptomi. Palpacija je fizikalni pregled kroz dodir, koji omogućava otkrivanje abnormalnosti. Perkusija je tehnika koja uključuje lagano specifične udarce prsima po različitim dijelovima tijela kako bi se otkrile promjene u organskim strukturama. Auskultacija je slušanje zvukova u tijelu pomoću stetoskopa.
+Također, poseban naglasak stavlja se na komunikacijske vještine, jer kvalitetna interakcija između medicinske sestre i pacijenta predstavlja ključnu ulogu u prikupljanju relevantnih informacija i pružanju emocionalne podrške. Komunikacija između medicinske sestre i pacijenta ima ključnu ulogu u prikupljanju informacija i pružanju emocionalne podrške. Razvoj komunikacijskih vještina uključuje aktivno slušanje, gdje se pažljivo prate pacijentove izjave i odgovara na njihove potrebe. Empatija je također važna, jer uključuje razumijevanje i dijeljenje pacijentovih osjećaja. Jasno komuniciranje znači prezentiranje informacija na jasno i razumljivoj načinu.
+Praktični dio tečaja uključuje demonstracije i simulacije kliničkih scenarija, što omogućava polaznicima da stečeno znanje primijene u kontroliranom okruženju prije nego što se suoče s realnim situacijama. Ovo uključuje simulacije hitnih stanja, gdje se vježbaju hitne medicinske situacije kako bi se razvila sposobnost brzog donošenja odluka. Kliničke vježbe uključuju praktične vježbe fizikalnog pregleda i drugih kliničkih vještina.
+Kroz praktične vježbe i simulacije, polaznici razvijaju kritičko razmišljanje i sposobnost donošenja odluka u različitim medicinskim situacijama. Ovo uključuje analizu situacija, gdje se razumije kontekst i identificiraju ključni faktori koji utječu na odlučivanje. Prioritetizacija je također važna, gdje se određuju najvažniji koraci u hitnim situacijama.
+Zaključno, tečaj propedeutike za medicinske sestre osmišljen je kako bi unaprijedio profesionalne kompetencije polaznika, omogućujući im da postanu sigurniji i učinkovitiji u svom radu. Kroz teorijsku podlogu, praktične vježbe i interaktivni pristup, ovaj tečaj predstavlja neophodan korak u profesionalnom razvoju medicinskih sestara, osiguravajući visoku kvalitetu zdravstvene skrbi i sigurnost pacijenata
+Ključne riječi propedeutika, pregled, edukacija, medicinske sestre/tehničari</t>
+  </si>
+  <si>
+    <t>Sažetak Masovne nesreće nisu svakodnevna pojava u radu zdravstvenog sustava. Neadekvatna organizacija mjesta masovne nesreće, bolnica kao i loša komunikacija unutar zdravstvenog sustava dovode do nepotrebnog povećanja broja žrtava. Kako su masovne nesreće rijetkost potrebno je  povećati spremnost na način da se unaprijed planira odgovor zdravstvenog sustava pa samim tim i hitne medicinske službe. Svaki dio sustava treba imati unaprijed definirane postupke za situaciju masovne nesreće.
+Za uspješnu organizaciju mjesta masovne nesreće potrebna je suradnja svih žurnih službi. Prvenstveno su to hitna medicinska služba, policija i vatrogasci. Svaka služba za sebe delegira zapovjednika na mjestu nesreće. Oni međusobno komuniciraju i organiziraju mjesto nesreće.
+Na  početku zbrinjavanja masovne nesreće potrebno je unutar hitne medicinske službe postaviti jasan zapovjedni lanac, primjeniti ustrojen način komunikacije sa MPDJ i Kriznim stožerom te sa ostalim žurnim službama. Cilj predavanja je prikazati djelovanje prvog tima na mjestu nesreće, postupke za koje je zadužen zapovjednik mjesta nesreće, zapovjednik trijaže i zapovjednik transporta te princip organizacije samog mjesta nesreće. Kako su za organizaciju mjesta nesreće nužne informacije o kapacitetu bolnica, transportnim sredstvima i drugo prikazana je i komunikacija unutar zdravstvenog sustava tijekom masovne nesreće.
+Ključne riječi masovna nesreća, organizacija, komunikacija, suradnja</t>
+  </si>
+  <si>
+    <t>Sažetak Priprema objedinjenog hitnog bolničkog prijema (OHBP-a) za masovnu nesreću uključuje niz ključnih koraka koji omogućuju bolnicama da brzo i učinkovito odgovore na velike brojeve ozlijeđenih osoba u situacijama kao što su velike nesreće, prirodne katastrofe ili teroristički napadi.
+Prvi korak u pripremi bolnice i OHBP-a za velike nesreće i katastrofe je detaljna procjena rizika. Potrebno je analizirati specifične prijetnje koje prijete zajednici te na temelju tih procjena razviti planove koji uključuju protokole za hitni prijem, trijažu i raspoređivanje dostupnih resursa. Taj plan potrebno je integrirati u nacionalne i međunarodne sustave pripravnosti i suradnju sa drugim žurnim službama. Ključan el-ement bolničke organizacije u velikim nesrećama je sustav trijaže. Primarnu bolničku trijažu mora provoditi iskusno i educirano osoblje. Medicinski djelatnici u OHBP-u moraju brzo procijeniti stanje velikog broja pacijenata i prioritetno liječiti one sa na-jtežim ozljedama. Takav način rada zahtjeva educirane djelatnike koji mogu precizno i brzo procijeniti ozbiljnost ozljeda te ih kategorizirati u prioritetne skupine. Bolnička trijaža u OHBP-u je u pravilu anatomska trijaža uz kontrolu fizioloških parametara. Prilikom najave velike nesreće potrebno je formirati reanimacijske timove koje čine minimalno 4 osobe (2 liječnika i 2 medicinske sestre/ tehničara). Jedan liječnik mora imati iskustvo iz područja traumatologije. U pripremi za velike nesreće potrebno je osigurati potrebne resurse i infrastrukturu što uključuje dodatne krevete, opremu, lijekove i osoblje. Također mora se planirati i proširenje kapaciteta OHBP-a i bolnice. Potrebno je planirati suradnju s drugim bolnicama i medicinskim ustanovama kako bi se rasporedili pacijenti i resursi. Koordinacija između bolnica, hitnih službi, civilne zaštite i drugih organizacija od ključne je važnosti za uspješan odgovor na velike nesreće. Edukacija djelatnika ključna je za učinkovito djelovanje OHBP-a. Redovite simulacije i vježbe omogućuju djelatnicima OHBP-a da se upoznaju s procedurama i protokolima, kao i da se pripreme za izazove koje donosi velika nesreća. Osim medicinske pomoći, pružanje psihološke prve pomoći postaje sve važnija kompo-nenta bolničkog odgovora na veliku nesreću. Velike nesreće mogu uzrokovati velike psihološke traume, pa bolnice moraju osigurati psihološku podršku kako za pacijente tako i za djelatnike koji se suočavaju s traumatskim situacijama.
+Organizacija OHBP-a u velikoj nesreći i katastrofi zahtijeva sveobuhvatan pristup koji uključuje pripremu, obuku, koordinaciju i raspoređivanje resursa. Ključni aspekti uključuju učinkovito upravljanje trijažom, proširenje kapaciteta bolnice, koordinaciju s drugim institucijama i pružanje psihološke podrške. S obzirom na velike prijetnje i nepredvidivost nesreća, nužno je da OHBP i drugi bolnički sustavi kontinuirano usavršavaju svoje sposobnosti za odgovor u velikim nesrećama i katastrofama.
+Ključne riječi objedinjeni hitni bolnički prijem, velika nesreća, katastrofa, organizacija</t>
+  </si>
+  <si>
+    <t>Sažetak Hrvatski zavod za hitnu medicinu (HZHM) i Krizni stožer Ministarstva zdravstva (KS MIZ) imaju ključne uloge u organizaciji i provedbi medicinskog odgovora na velike nesreće i katastrofe u Republici Hrvatskoj. Njihovo koordinirano djelovanje osigurava brz i učinkovit odgovor zdravstvenog sustava u kriznim situacijama.
+HZHM je zadužen za operativno djelovanje tijekom velikih nesreća. Timovi hitne medicinske službe (HMS) prvi izlaze na mjesto događaja, javljaju prve informacije s terena, provode trijažu unesrećenih i organiziraju njihovo zbrinjavanje. HZHM koordinira rad hitne medicinske službe na terenu preko županijskih zavoda za hitnu medicinu. Također, HZHM blisko surađuje s bolničkim sustavom ali i drugim žurnim službama poput vatrogasaca i policije kako bi se osiguralo učinkovito spašavanje i zbrinjavanje unesrećenih. Za komunikaciju tijekom kriznih situacija, HZHM je osigurao korištenje TETRA sustava koji omogućuje pouzdanu vezu između timova na terenu i svih relevantnih dionika koji sudjeluju o odgovoru na veliku nesreću.
+S druge strane, Krizni stožer MIZ-a ima stratešku ulogu u upravljanju zdravstvenim sustavom tijekom krize. Stožer se aktivira kada je proglašena velika nesreća ili katastrofa i preuzima koordinaciju svih provoditelja zdravstvene zaštite. Donosi ključne odluke i upute za postupanje zdravstvenog sustava, surađuje sa Stožerom civilne zaštite RH te organizira primanje i slanje međunarodne medicinske pomoći ako je potrebno.
+Zajedničkim djelovanjem, HZHM i Krizni stožer MIZ-a osiguravaju da zdravstveni sustav brzo i efikasno reagira na krizne situacije. Oni koordiniraju rad hitne medicinske službe, bolnica i drugih zdravstvenih ustanova, osiguravajući optimalno korištenje resursa. Važan aspekt njihovog rada je i priprema za krizne situacije kroz redovito provođenje vježbi i edukacija. HZHM, primjerice, provodi tečaj “Medicinski odgovor na velike nesreće - Cro-MRMI” za zdravstvene djelatnike.
+Ove dvije institucije također sudjeluju u izradi planova i protokola za postupanje u velikim nesrećama, čime se osigurava da svi dionici zdravstvenog sustava znaju svoje uloge i odgovornosti u slučaju krize.
+Zaključno, HZHM i Krizni stožer MIZ-a imaju komplementarne uloge koje su ključne za učinkovit medicinski odgovor u slučaju velikih nesreća i katastrofa. Njihova suradnja i koordinirano djelovanje osiguravaju da zdravstveni sustav Republike Hrvatske bude spreman odgovoriti na izazove koje donose krizne situacije, štiteći zdravlje i živote građana.</t>
+  </si>
+  <si>
+    <t>Sažetak Velika nesreća kao izvanredni događaj  poglavito za zdravstveni sustav zahtjeva maksimalno korištenje svih resursa koji su na raspolaganju. Temelj za kvalitetno upravljanje ljudskim i materijalnim resursima je kvalitetan i dobro organiziran rad MPDJ. Kako bi mogli odgovoriti na sve izazove zbrinjavanja velike nesreće dispečeri se služe protokolima u kojima je jasno definirano koje postupke treba provesti i evidentirati. Na temelju informacija koje dobiva s terena dispečer alarmira dodatne dispečere, KS MIZ, MPDJ iz drugih županija te centar 112. Tri temeljna načela rada u velikoj nesreći su organizacija, komunikacija i distribucija. Organizacija ovisi o razini nesreće, veličini prostora MPDJ, broju raspoloživih dispečera. Važno je naglasiti da se svi članovi tima trebaju držati rasporeda poslova i zadataka koji su im određeni prilikom zbrinjavanja velike nesreće. Komunikacija se odvija na horizontalnoj i vertikalnoj razini. Na horizontalnoj razini komunikacija se odvija s MPDJ drugih županija i s centrom 112, na vertikalnoj razini s KS MIZ, medicinskim zapovjednikom , zapovjednikom transporta i timovima. Komunikacija mora biti jasna, glasna i nedvosmislena. Sve informacije koje nisu jasne treba dodatno provjeravati. Distribucija se odnosi na raspolaganje ljudskim i materijalnim resursima. MPDJ mora znati u svakom trenutku koliko vozila ima na raspolaganju i u kojem roku će ta vozila biti na mjestu nesreće o čemu će periodično izvijestiti zapovjednika transporta. Određeni broj vozila treba ostaviti za intervencije koje nisu vezane za veliku nesreću. Ključni postupci koje treba odraditi su uputiti prvi tim, zaprimiti „Window report“ i „METHANE“ izvješće i proslijediti ih, procijeniti potrebe za resursima, alarmirati KS MIZ i MPDJ drugih županija. Kompletna MPDJ funkcionira prema protokolu za velike nesreće sve dok KS MIZ ne proglasi veliku nesreću završenom. 
+Ključne riječi MPDJ, upravljanje, velika nesreća, komunikacija</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,8 +623,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +648,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -553,24 +680,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -593,15 +723,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -612,13 +733,39 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -932,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="15"/>
@@ -942,9 +1089,11 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="47" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="11" max="11" width="119.140625" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="137" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" thickBot="1">
@@ -960,7 +1109,7 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -985,25 +1134,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="11" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="14"/>
+      <c r="J2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="26.25" thickBot="1">
       <c r="A3" t="s">
@@ -1026,614 +1175,679 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:12" s="12" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="J4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="12" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="J5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="12" customFormat="1" ht="72.75" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="J6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="12" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="39" thickBot="1">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="J7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="12" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="J8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="12" customFormat="1" ht="63.75" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="J9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="12" customFormat="1" ht="85.5" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="J10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="12" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A12" t="s">
+      <c r="J11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="17" customFormat="1">
+      <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="64.5" thickBot="1">
-      <c r="A13" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="J12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" s="17" customFormat="1" ht="63.75">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="H13" t="s">
+      <c r="E13" s="15"/>
+      <c r="H13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A14" s="5" t="s">
+      <c r="J13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" s="19" customFormat="1" ht="30">
+      <c r="A14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J14" t="s">
+      <c r="F14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" s="17" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="J15" s="9" t="s">
+      <c r="E15" s="21"/>
+      <c r="J15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" s="11" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A16" s="11" t="s">
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="G16" s="11" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" s="12" customFormat="1" ht="80.25" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="J17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="12" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60.75" thickBot="1">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="J18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="12" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="45.75" thickBot="1">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="J19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="12" customFormat="1" ht="77.25" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="45.75" thickBot="1">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="J20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="12" customFormat="1" ht="78" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="J21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="60.75" thickBot="1">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="J22" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="12" customFormat="1" ht="60" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="J23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="12" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A25" t="s">
+      <c r="J24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="17" customFormat="1">
+      <c r="A25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A26" t="s">
+      <c r="E25" s="18"/>
+      <c r="J25" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="17" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="E26" s="18"/>
+      <c r="J26" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:12" s="8" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="G27" s="11" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="G27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" s="12" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="J28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="12" customFormat="1" ht="70.5" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="J29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="12" customFormat="1" ht="55.5" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="J30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="12" customFormat="1" ht="57" customHeight="1">
+      <c r="A31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A32" t="s">
+      <c r="J31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="17" customFormat="1">
+      <c r="A32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A33" t="s">
+      <c r="E32" s="18"/>
+      <c r="J32" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="17" customFormat="1">
+      <c r="A33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="E33" s="18"/>
+      <c r="J33" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1649,6 +1863,9 @@
       </c>
       <c r="D35" s="2" t="s">
         <v>142</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>39</v>

--- a/data/2.xlsx
+++ b/data/2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\11-03-2025\git finalno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbonic\Desktop\programer\11-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CE9848-5E24-4896-AE48-022C7E0F6F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="163">
   <si>
     <t>VRSTA</t>
   </si>
@@ -581,7 +580,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1076,11 +1075,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="15"/>
@@ -1369,7 +1368,9 @@
       <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="E12" s="15"/>
       <c r="J12" s="14" t="s">
         <v>9</v>
